--- a/feature_selection.xlsx
+++ b/feature_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongb\github\github-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612B5D3-5CBB-48FB-9DEE-585C7251348D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA13990-71E9-4ABB-97B8-2E1BE0CBFE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="3510" windowWidth="13380" windowHeight="15435" xr2:uid="{09D42AF7-1ABC-4FDE-ADB5-D030C01AAE5D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>gender</t>
   </si>
@@ -113,13 +113,17 @@
   </si>
   <si>
     <t>min_child_weight</t>
+  </si>
+  <si>
+    <t>전체 변수로한거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +175,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,20 +205,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,668 +545,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F23707-5C47-43A8-B6C6-9A45AA11BBF3}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="5" width="9" style="2"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
         <v>0.72456892007372897</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G2" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H2" s="3">
         <v>0.68603899999999995</v>
       </c>
-      <c r="I1" s="5">
-        <f>(H1+H2+H3)/3</f>
+      <c r="I2" s="2">
+        <f>(H2+H3+H4)/3</f>
         <v>0.69824833333333336</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>0.72308123002278002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>1.4876900509489532E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>148.76900509489533</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="H3" s="2">
         <v>0.70120000000000005</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>0.72187792057008504</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>1.2033094526949784E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>120.33094526949783</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="H4" s="3">
         <v>0.70750599999999997</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>0.720931868489465</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>9.460520806200412E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>94.605208062004124</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="G5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="3">
         <v>0.68557199999999996</v>
       </c>
-      <c r="I4" s="5">
-        <f>(H4+H5+H6)/3</f>
+      <c r="I5" s="2">
+        <f>(H5+H6+H7)/3</f>
         <v>0.69773032534695523</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>0.72088559289393594</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>4.6275595529055025E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>4.6275595529055025</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="H6" s="3">
         <v>0.70094000000000001</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>0.72103189443524995</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>-1.4630154131400896E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>-14.630154131400896</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="H7" s="3">
         <v>0.70667897604086605</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>0.72026215126116899</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>7.6974317408096127E-4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>76.974317408096127</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
+      <c r="G8" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="3">
         <v>0.68637300000000001</v>
       </c>
-      <c r="I7" s="5">
-        <f>(H7+H8+H9)/3</f>
+      <c r="I8" s="2">
+        <f>(H8+H9+H10)/3</f>
         <v>0.69814737004797367</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.71786887505618202</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.3932762049869716E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>239.32762049869717</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>0.70066011014392104</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0.71786887505618202</v>
       </c>
       <c r="C9" s="2">
+        <v>2.3932762049869716E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>239.32762049869717</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.70066011014392104</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.71786887505618202</v>
+      </c>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="H10" s="3">
         <v>0.70740899999999995</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.71757988464679101</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>2.8899040939101006E-4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>28.899040939101006</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="G11" s="2">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="3">
         <v>0.68588400000000005</v>
       </c>
-      <c r="I10" s="5">
-        <f>(H10+H11+H12)/3</f>
+      <c r="I11" s="2">
+        <f>(H11+H12+H13)/3</f>
         <v>0.69792382349516779</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.717326748971713</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>2.5313567507800894E-4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>25.313567507800894</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1">
+      <c r="H12" s="3">
         <v>0.70056247048550302</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>0.71736537254282795</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>-3.8623571114948518E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>-3.8623571114948518</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="3">
         <v>0.70732499999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0.71619498796772296</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>1.1703845751049879E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>117.0384575104988</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="3">
         <v>0.68573120743076199</v>
       </c>
-      <c r="I13" s="5">
-        <f>(H13+H14+H15)/3</f>
+      <c r="I14" s="2">
+        <f>(H14+H15+H16)/3</f>
         <v>0.69797233574527662</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>0.71663457578634704</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>-4.3958781862407648E-4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>-43.958781862407648</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="3">
         <v>0.70127200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>0.71623146938718996</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>4.0310639915708268E-4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>40.310639915708265</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="3">
         <v>0.70691379980506797</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>0.71599335216044102</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>2.381172267489351E-4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>23.81172267489351</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="3">
         <v>0.68577408711064802</v>
       </c>
-      <c r="I16" s="5">
-        <f>(H16+H17+H18)/3</f>
+      <c r="I17" s="2">
+        <f>(H17+H18+H19)/3</f>
         <v>0.69782625408407262</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>0.71368694335513105</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>2.3064088053099674E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>230.64088053099675</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="3">
         <v>0.70103570417966898</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>0.71282056040586905</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>8.6638294926200121E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>86.638294926200118</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="3">
         <v>0.70666897096190096</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.710782296497253</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>2.0382639086160559E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>203.8263908616056</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="3">
         <v>0.68622060847544097</v>
       </c>
-      <c r="I19" s="5">
-        <f>(H19+H20+H21)/3</f>
+      <c r="I20" s="2">
+        <f>(H20+H21+H22)/3</f>
         <v>0.69810836150169531</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>0.71237037825849303</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>-1.5880817612400344E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>-158.80817612400344</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="3">
         <v>0.70127954742645005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>0.711913561185187</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>4.5681707330602617E-4</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>45.68170733060262</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="3">
         <v>0.70682492860319501</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>0.71213145916883303</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>-2.1789798364602042E-4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>-21.789798364602042</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="3">
         <v>0.68530990823396998</v>
       </c>
-      <c r="I22" s="5">
-        <f>(H22+H23+H24)/3</f>
+      <c r="I23" s="2">
+        <f>(H23+H24+H25)/3</f>
         <v>0.69749539263261928</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>0.71220500723811997</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>-7.3548069286943907E-5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>-7.3548069286943907</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="3">
         <v>0.70070770957842599</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>0.71180799640530501</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>3.9701083281495908E-4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>39.701083281495912</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="3">
         <v>0.70646856008546199</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>0.71217127563855698</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>-3.6327923325196743E-4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>-36.327923325196743</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="3">
         <v>0.68486170586759498</v>
       </c>
-      <c r="I25" s="5">
-        <f>(H25+H26+H27)/3</f>
+      <c r="I26" s="2">
+        <f>(H26+H27+H28)/3</f>
         <v>0.69675003096040389</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H26" s="1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>0.71282953909920999</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.69987926275492596</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.71282953909920999</v>
+      </c>
+      <c r="C28" s="2">
+        <f>B27-B28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>0.70550912425869095</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G28" s="2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.71213954291647896</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ref="C29:C36" si="0">B28-B29</f>
+        <v>6.8999618273102303E-4</v>
+      </c>
+      <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="3">
         <v>0.68445120294697304</v>
       </c>
-      <c r="I28" s="5">
-        <f>(H28+H29+H30)/3</f>
+      <c r="I29" s="2">
+        <f>(H29+H30+H31)/3</f>
         <v>0.696196141501503</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H29" s="1">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.71192004711026502</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1949580621394293E-4</v>
+      </c>
+      <c r="H30" s="3">
         <v>0.699155877781653</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H30" s="1">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.71002414379507695</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8959033151880744E-3</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.70498134377588295</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G31" s="2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.71072567611367599</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.0153231859904075E-4</v>
+      </c>
+      <c r="G32" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="3">
         <v>0.683687135515058</v>
       </c>
-      <c r="I31" s="5">
-        <f>(H31+H32+H33)/3</f>
+      <c r="I32" s="2">
+        <f>(H32+H33+H34)/3</f>
         <v>0.69528466270720968</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="1">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.71180143879527202</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0757626815960375E-3</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.69835296445475603</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.71196670751044999</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.6526871517796859E-4</v>
+      </c>
+      <c r="H34" s="3">
         <v>0.703813888151815</v>
       </c>
     </row>
-    <row r="34" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G34" s="2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.71036872726715805</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.597980243291941E-3</v>
+      </c>
+      <c r="G35" s="2">
         <v>7</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="3">
         <v>0.68288141286486803</v>
       </c>
-      <c r="I34" s="5">
-        <f>(H34+H35+H36)/3</f>
+      <c r="I35" s="2">
+        <f>(H35+H36+H37)/3</f>
         <v>0.69222118176038805</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="1">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.70878511892028795</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5836083468701023E-3</v>
+      </c>
+      <c r="H36" s="3">
         <v>0.69790513241629604</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="1">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="3">
         <v>0.69587699999999997</v>
       </c>
     </row>
-    <row r="37" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G37" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H38" s="3">
         <v>0.68185880196099002</v>
       </c>
-      <c r="I37" s="5">
-        <f>(H37+H38+H39)/3</f>
+      <c r="I38" s="2">
+        <f>(H38+H39+H40)/3</f>
         <v>0.22728626732033</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="2">
         <v>15</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H41" s="3">
         <v>0.68194630304466797</v>
       </c>
     </row>
-    <row r="43" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G43" s="2">
+    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G44" s="2">
         <v>10</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="3">
         <v>0.68828952883572803</v>
       </c>
-      <c r="I43" s="5">
-        <f>(H43+H44+H45)/3</f>
+      <c r="I44" s="5">
+        <f>(H44+H45+H46)/3</f>
         <v>0.69030673566182632</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="1">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="3">
         <v>0.70622567814975101</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="1">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="3">
         <v>0.67640500000000003</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G47" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G49" s="2">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="2">
         <v>7</v>
       </c>
     </row>
